--- a/results/P20A - 20.Respuesta A.xlsx
+++ b/results/P20A - 20.Respuesta A.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="155">
   <si>
     <t>+ 50</t>
   </si>
@@ -282,9 +282,6 @@
   </si>
   <si>
     <t>Territorio</t>
-  </si>
-  <si>
-    <t>des</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -843,7 +840,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F85"/>
+  <dimension ref="A1:F84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1297,7 +1294,7 @@
         <v>2</v>
       </c>
       <c r="C23">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D23">
         <v>6</v>
@@ -1306,7 +1303,7 @@
         <v>3</v>
       </c>
       <c r="F23">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2511,41 +2508,21 @@
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>4</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C84">
-        <v>1</v>
+        <v>162</v>
       </c>
       <c r="D84">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B85">
-        <v>16</v>
-      </c>
-      <c r="C85">
-        <v>162</v>
-      </c>
-      <c r="D85">
-        <v>47</v>
-      </c>
-      <c r="E85">
-        <v>18</v>
-      </c>
-      <c r="F85">
         <v>243</v>
       </c>
     </row>
@@ -2556,7 +2533,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D85"/>
+  <dimension ref="A1:D84"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2567,10 +2544,10 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
@@ -2875,13 +2852,13 @@
         <v>27</v>
       </c>
       <c r="B23">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C23">
         <v>22</v>
       </c>
       <c r="D23">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -3726,29 +3703,15 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>4</v>
       </c>
       <c r="B84">
-        <v>1</v>
+        <v>129</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="D84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B85">
-        <v>129</v>
-      </c>
-      <c r="C85">
-        <v>114</v>
-      </c>
-      <c r="D85">
         <v>243</v>
       </c>
     </row>
@@ -3759,7 +3722,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K85"/>
+  <dimension ref="A1:K84"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3770,31 +3733,31 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>4</v>
@@ -4540,7 +4503,7 @@
         <v>27</v>
       </c>
       <c r="B23">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -4567,7 +4530,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -6672,71 +6635,36 @@
     </row>
     <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>4</v>
       </c>
       <c r="B84">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D84">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="F84">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G84">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I84">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="J84">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11">
-      <c r="A85" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B85">
-        <v>56</v>
-      </c>
-      <c r="C85">
-        <v>13</v>
-      </c>
-      <c r="D85">
-        <v>25</v>
-      </c>
-      <c r="E85">
-        <v>70</v>
-      </c>
-      <c r="F85">
-        <v>6</v>
-      </c>
-      <c r="G85">
-        <v>28</v>
-      </c>
-      <c r="H85">
-        <v>10</v>
-      </c>
-      <c r="I85">
-        <v>33</v>
-      </c>
-      <c r="J85">
-        <v>2</v>
-      </c>
-      <c r="K85">
         <v>243</v>
       </c>
     </row>
@@ -6747,7 +6675,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BG85"/>
+  <dimension ref="A1:BG84"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6758,175 +6686,175 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="Z1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="AY1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="BG1" s="1" t="s">
         <v>4</v>
@@ -10852,7 +10780,7 @@
         <v>0</v>
       </c>
       <c r="BB23">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BC23">
         <v>0</v>
@@ -10867,7 +10795,7 @@
         <v>0</v>
       </c>
       <c r="BG23">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:59">
@@ -21612,359 +21540,180 @@
     </row>
     <row r="84" spans="1:59">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>4</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F84">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G84">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L84">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O84">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="P84">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q84">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R84">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T84">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="U84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V84">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W84">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X84">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC84">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF84">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AG84">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH84">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AI84">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ84">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AK84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM84">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP84">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AQ84">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AR84">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AS84">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AT84">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AU84">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AV84">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW84">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ84">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BA84">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BB84">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="BC84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD84">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BE84">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BF84">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BG84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:59">
-      <c r="A85" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B85">
-        <v>4</v>
-      </c>
-      <c r="C85">
-        <v>2</v>
-      </c>
-      <c r="D85">
-        <v>1</v>
-      </c>
-      <c r="E85">
-        <v>1</v>
-      </c>
-      <c r="F85">
-        <v>6</v>
-      </c>
-      <c r="G85">
-        <v>6</v>
-      </c>
-      <c r="H85">
-        <v>7</v>
-      </c>
-      <c r="I85">
-        <v>1</v>
-      </c>
-      <c r="J85">
-        <v>8</v>
-      </c>
-      <c r="K85">
-        <v>1</v>
-      </c>
-      <c r="L85">
-        <v>7</v>
-      </c>
-      <c r="M85">
-        <v>1</v>
-      </c>
-      <c r="N85">
-        <v>1</v>
-      </c>
-      <c r="O85">
-        <v>24</v>
-      </c>
-      <c r="P85">
-        <v>2</v>
-      </c>
-      <c r="Q85">
-        <v>6</v>
-      </c>
-      <c r="R85">
-        <v>2</v>
-      </c>
-      <c r="S85">
-        <v>1</v>
-      </c>
-      <c r="T85">
-        <v>26</v>
-      </c>
-      <c r="U85">
-        <v>1</v>
-      </c>
-      <c r="V85">
-        <v>2</v>
-      </c>
-      <c r="W85">
-        <v>4</v>
-      </c>
-      <c r="X85">
-        <v>2</v>
-      </c>
-      <c r="Y85">
-        <v>1</v>
-      </c>
-      <c r="Z85">
-        <v>1</v>
-      </c>
-      <c r="AA85">
-        <v>1</v>
-      </c>
-      <c r="AB85">
-        <v>1</v>
-      </c>
-      <c r="AC85">
-        <v>8</v>
-      </c>
-      <c r="AD85">
-        <v>1</v>
-      </c>
-      <c r="AE85">
-        <v>1</v>
-      </c>
-      <c r="AF85">
-        <v>5</v>
-      </c>
-      <c r="AG85">
-        <v>2</v>
-      </c>
-      <c r="AH85">
-        <v>3</v>
-      </c>
-      <c r="AI85">
-        <v>10</v>
-      </c>
-      <c r="AJ85">
-        <v>3</v>
-      </c>
-      <c r="AK85">
-        <v>1</v>
-      </c>
-      <c r="AL85">
-        <v>1</v>
-      </c>
-      <c r="AM85">
-        <v>2</v>
-      </c>
-      <c r="AN85">
-        <v>1</v>
-      </c>
-      <c r="AO85">
-        <v>1</v>
-      </c>
-      <c r="AP85">
-        <v>13</v>
-      </c>
-      <c r="AQ85">
-        <v>6</v>
-      </c>
-      <c r="AR85">
-        <v>2</v>
-      </c>
-      <c r="AS85">
-        <v>4</v>
-      </c>
-      <c r="AT85">
-        <v>5</v>
-      </c>
-      <c r="AU85">
-        <v>10</v>
-      </c>
-      <c r="AV85">
-        <v>2</v>
-      </c>
-      <c r="AW85">
-        <v>2</v>
-      </c>
-      <c r="AX85">
-        <v>1</v>
-      </c>
-      <c r="AY85">
-        <v>1</v>
-      </c>
-      <c r="AZ85">
-        <v>2</v>
-      </c>
-      <c r="BA85">
-        <v>3</v>
-      </c>
-      <c r="BB85">
-        <v>21</v>
-      </c>
-      <c r="BC85">
-        <v>1</v>
-      </c>
-      <c r="BD85">
-        <v>4</v>
-      </c>
-      <c r="BE85">
-        <v>2</v>
-      </c>
-      <c r="BF85">
-        <v>5</v>
-      </c>
-      <c r="BG85">
         <v>243</v>
       </c>
     </row>
@@ -21975,7 +21724,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E85"/>
+  <dimension ref="A1:E84"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -21986,13 +21735,13 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>155</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
@@ -22366,10 +22115,10 @@
         <v>25</v>
       </c>
       <c r="D23">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E23">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -23394,35 +23143,18 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>4</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="D84">
-        <v>1</v>
+        <v>98</v>
       </c>
       <c r="E84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
-      <c r="A85" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B85">
-        <v>42</v>
-      </c>
-      <c r="C85">
-        <v>103</v>
-      </c>
-      <c r="D85">
-        <v>98</v>
-      </c>
-      <c r="E85">
         <v>243</v>
       </c>
     </row>
